--- a/biology/Botanique/Moraea_vuvuzela/Moraea_vuvuzela.xlsx
+++ b/biology/Botanique/Moraea_vuvuzela/Moraea_vuvuzela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moraea vuvuzela est une espèce de plante du genre Moraea et de la famille des Iridaceae qui est endémique d'Afrique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée dont la fleur à la corolle jaune ou violacée a une forme d'entonnoir[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée dont la fleur à la corolle jaune ou violacée a une forme d'entonnoir.
 Elle vit surtout dans les terrains rocheux et marécageux.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moraea vuvuzela est endémique d’Afrique du Sud, dans la province du Cap-Occidental, dans les environs de Worcester[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moraea vuvuzela est endémique d’Afrique du Sud, dans la province du Cap-Occidental, dans les environs de Worcester.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Découverte dans la région du Cap peu avant la Coupe du monde de football de 2010, elle a été baptisée « vuvuzela » par l'Institut sud-africain de la biodiversité nationale (Sanbi) pour sa ressemblance avec la corne utilisée par les supporters de football dans les stades d'Afrique du Sud et qui a acquis une renommée internationale lors de la compétition en devenant même son symbole en même temps qu'un sujet de controverses à cause du bourdonnement incessant qu'elle génère pendant les matchs[1]. Ce nom permettait donc de faire honneur à la Coupe du monde de football — la première sur le continent africain[1] —, tout en profitant de la publicité autour de celle-ci pour attirer l'attention sur le fait qu'elle soit menacée par l'agriculture et l'urbanisation[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Découverte dans la région du Cap peu avant la Coupe du monde de football de 2010, elle a été baptisée « vuvuzela » par l'Institut sud-africain de la biodiversité nationale (Sanbi) pour sa ressemblance avec la corne utilisée par les supporters de football dans les stades d'Afrique du Sud et qui a acquis une renommée internationale lors de la compétition en devenant même son symbole en même temps qu'un sujet de controverses à cause du bourdonnement incessant qu'elle génère pendant les matchs. Ce nom permettait donc de faire honneur à la Coupe du monde de football — la première sur le continent africain —, tout en profitant de la publicité autour de celle-ci pour attirer l'attention sur le fait qu'elle soit menacée par l'agriculture et l'urbanisation.
 </t>
         </is>
       </c>
